--- a/qa/01.测试用例/Demo/副本用例模板/副本怪物测试用例.xlsx
+++ b/qa/01.测试用例/Demo/副本用例模板/副本怪物测试用例.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="339">
   <si>
     <t>caseID</t>
   </si>
@@ -495,10 +495,6 @@
   </si>
   <si>
     <t>配置了延迟类effect和伤害类effect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只配置一次伤害，伤害几率触发dot</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1331,6 +1327,26 @@
   </si>
   <si>
     <t>触发添加buff的effect</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>只配置一次伤害，伤害几率触发dot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例走读情况修改用例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看dot触发情况</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>link的方式触发</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -2443,7 +2459,15 @@
     <cellStyle name="着色 6" xfId="128" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="142"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2462,13 +2486,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>577453</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2765,7 +2789,7 @@
   <dimension ref="B22:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,9 +2834,15 @@
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="2">
+        <v>42259</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>336</v>
+      </c>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
     </row>
@@ -2845,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -2860,10 +2890,11 @@
     <col min="5" max="5" width="42.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="27.58203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="42.5" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="33.75" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2871,11 +2902,12 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2897,25 +2929,27 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
@@ -2935,7 +2969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="11" t="s">
         <v>79</v>
       </c>
@@ -2943,7 +2977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.25">
       <c r="F6" s="11" t="s">
         <v>73</v>
       </c>
@@ -2951,7 +2985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
         <v>72</v>
       </c>
@@ -2959,7 +2993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="11" t="s">
         <v>74</v>
       </c>
@@ -2967,7 +3001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="11" t="s">
         <v>75</v>
       </c>
@@ -2975,7 +3009,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="11" t="s">
         <v>76</v>
       </c>
@@ -2983,10 +3017,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>67</v>
       </c>
@@ -3006,7 +3040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="11" t="s">
         <v>78</v>
       </c>
@@ -3014,7 +3048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +3056,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="11" t="s">
         <v>82</v>
       </c>
@@ -3030,7 +3064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="11" t="s">
         <v>83</v>
       </c>
@@ -3038,7 +3072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" s="11" t="s">
         <v>84</v>
       </c>
@@ -3046,7 +3080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="11" t="s">
         <v>85</v>
       </c>
@@ -3054,15 +3088,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -3081,8 +3116,9 @@
       <c r="G21" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="7"/>
@@ -3092,8 +3128,9 @@
       <c r="G22" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
@@ -3103,8 +3140,9 @@
       <c r="G23" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="7"/>
@@ -3114,8 +3152,9 @@
       <c r="G24" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="7"/>
@@ -3125,8 +3164,9 @@
       <c r="G25" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="7"/>
@@ -3136,18 +3176,20 @@
       <c r="G26" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
       <c r="D27" s="4"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>113</v>
@@ -3164,8 +3206,9 @@
       <c r="G28" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
       <c r="D29" s="4"/>
@@ -3176,8 +3219,9 @@
       <c r="G29" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
       <c r="D30" s="4">
@@ -3192,8 +3236,9 @@
       <c r="G30" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
       <c r="D31" s="4"/>
@@ -3204,8 +3249,9 @@
       <c r="G31" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
       <c r="D32" s="4"/>
@@ -3216,8 +3262,9 @@
       <c r="G32" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
       <c r="D33" s="4"/>
@@ -3226,2019 +3273,2171 @@
         <v>122</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="F35" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="4">
+      <c r="D37" s="4"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="F44" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="G45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="6"/>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="4"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="6"/>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="6"/>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="3" t="s">
+      <c r="F47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="4">
         <v>1</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F50" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4">
-        <v>2</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="F54" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>145</v>
+      <c r="F55" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
       <c r="D56" s="4"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="4"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3">
-        <v>3</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="7"/>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F59" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="7" t="s">
-        <v>145</v>
+      <c r="D60" s="4"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="11"/>
       <c r="F61" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="11"/>
       <c r="F62" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
+        <v>170</v>
+      </c>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="4">
-        <v>4</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="3"/>
       <c r="C64" s="6"/>
       <c r="D64" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6"/>
       <c r="D65" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>151</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F65" s="13"/>
       <c r="G65" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="3"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="7"/>
+      <c r="D66" s="4">
+        <v>6</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="F66" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>145</v>
+      <c r="F67" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
       <c r="D68" s="4"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
       <c r="D69" s="4"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="4">
+        <v>152</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="30"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="72" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
+      <c r="E72" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="F72" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="7"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="4">
-        <v>2</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F74" s="6"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="G74" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
       <c r="D75" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="7"/>
+      <c r="D76" s="4">
+        <v>3</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="F76" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
       <c r="D77" s="4"/>
       <c r="E77" s="7"/>
       <c r="F77" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="4">
-        <v>4</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="6"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G78" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
       <c r="D79" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="7"/>
+      <c r="D80" s="4">
+        <v>5</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G80" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="4">
-        <v>1</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="4">
-        <v>2</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F82" s="11"/>
+      <c r="G82" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="F83" s="6" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
       <c r="D84" s="4"/>
       <c r="E84" s="7"/>
       <c r="F84" s="6" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" s="6"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="G85" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
       <c r="D86" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>173</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F86" s="6"/>
       <c r="G86" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="7"/>
+      <c r="D87" s="4">
+        <v>3</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="F87" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
       <c r="E88" s="7"/>
       <c r="F88" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="4">
-        <v>4</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F89" s="6"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="G89" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
       <c r="D90" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="7"/>
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="1:7" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
+      <c r="G91" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B92" s="22"/>
-      <c r="D92" s="22"/>
-    </row>
-    <row r="93" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="22"/>
+      <c r="D93" s="22"/>
+    </row>
+    <row r="94" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="31"/>
+      <c r="B94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D94" s="4">
         <v>1</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="4"/>
-      <c r="F94" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G94" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="31"/>
       <c r="B95" s="3"/>
       <c r="C95" s="6"/>
       <c r="D95" s="4"/>
       <c r="F95" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
       <c r="B96" s="3"/>
       <c r="C96" s="6"/>
       <c r="D96" s="4"/>
       <c r="F96" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="31"/>
       <c r="B97" s="3"/>
       <c r="C97" s="6"/>
       <c r="D97" s="4"/>
       <c r="F97" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="31"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="4"/>
+      <c r="F98" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="4"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G98" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="31"/>
-      <c r="B99" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="4"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="31"/>
+      <c r="B100" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D100" s="4">
         <v>1</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F99" s="7" t="s">
+      <c r="E100" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G99" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="4"/>
-      <c r="F100" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G100" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="31"/>
       <c r="B101" s="4"/>
       <c r="C101" s="15"/>
       <c r="D101" s="4"/>
       <c r="F101" s="7" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="31"/>
       <c r="B102" s="4"/>
       <c r="C102" s="15"/>
       <c r="D102" s="4"/>
       <c r="F102" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="31"/>
       <c r="B103" s="4"/>
       <c r="C103" s="15"/>
       <c r="D103" s="4"/>
       <c r="F103" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="31"/>
       <c r="B104" s="4"/>
       <c r="C104" s="15"/>
       <c r="D104" s="4"/>
       <c r="F104" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="31"/>
       <c r="B105" s="4"/>
       <c r="C105" s="15"/>
-      <c r="D105" s="4">
-        <v>2</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="D105" s="4"/>
       <c r="F105" s="7" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="31"/>
       <c r="B106" s="4"/>
       <c r="C106" s="15"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="F106" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="31"/>
       <c r="B107" s="4"/>
       <c r="C107" s="15"/>
       <c r="D107" s="4"/>
       <c r="F107" s="7" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="31"/>
       <c r="B108" s="4"/>
       <c r="C108" s="15"/>
       <c r="D108" s="4"/>
       <c r="F108" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="31"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="4"/>
       <c r="F109" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G109" s="7" t="s">
+    </row>
+    <row r="110" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="31"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="31"/>
+      <c r="F111" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="31"/>
+      <c r="B112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="31"/>
+      <c r="B113" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="F110" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="4"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="F113" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="G113" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="31"/>
       <c r="B114" s="4"/>
       <c r="D114" s="4"/>
       <c r="F114" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="31"/>
       <c r="B115" s="4"/>
       <c r="D115" s="4"/>
       <c r="F115" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="31"/>
       <c r="B116" s="4"/>
-      <c r="D116" s="4">
-        <v>2</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>287</v>
-      </c>
+      <c r="D116" s="4"/>
       <c r="F116" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A117" s="31"/>
       <c r="B117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>286</v>
+      </c>
       <c r="F117" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="31"/>
       <c r="B118" s="4"/>
       <c r="D118" s="4"/>
       <c r="F118" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="31"/>
       <c r="B119" s="4"/>
       <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F119" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="31"/>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="31"/>
+      <c r="B121" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D120" s="4">
+      <c r="D121" s="4">
         <v>1</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E121" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="4"/>
-      <c r="D121" s="4">
-        <v>2</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A122" s="31"/>
       <c r="B122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="4">
+        <v>2</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="F122" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="31"/>
       <c r="B123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="F123" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F123" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="4"/>
       <c r="D124" s="4"/>
       <c r="F124" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" s="4"/>
       <c r="D125" s="4"/>
       <c r="F125" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" s="4"/>
       <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F126" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="31"/>
+      <c r="B128" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D127" s="4">
+      <c r="D128" s="4">
         <v>1</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="E128" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="F128" s="11" t="s">
         <v>313</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" s="4"/>
       <c r="D129" s="4"/>
       <c r="F129" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="31"/>
       <c r="B130" s="4"/>
       <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F130" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="4"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="31"/>
+      <c r="B132" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D131" s="4">
-        <v>1</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="4"/>
-      <c r="D132" s="4">
-        <v>2</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="31"/>
       <c r="B133" s="4"/>
       <c r="D133" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="31"/>
       <c r="B134" s="4"/>
       <c r="D134" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G134" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
       <c r="B135" s="4"/>
       <c r="D135" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G135" s="27">
+        <v>1</v>
+      </c>
+      <c r="H135" s="27"/>
+    </row>
+    <row r="136" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="31"/>
       <c r="B136" s="4"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D136" s="4">
+        <v>5</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="31"/>
-      <c r="B137" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C137" s="4" t="s">
+      <c r="B137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="31"/>
+      <c r="B138" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D137" s="4">
-        <v>1</v>
-      </c>
-      <c r="E137" s="12" t="s">
+      <c r="F138" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="F138" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="31"/>
       <c r="B139" s="4"/>
       <c r="D139" s="4"/>
       <c r="F139" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
       <c r="B140" s="4"/>
-      <c r="D140" s="4">
-        <v>2</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="D140" s="4"/>
       <c r="F140" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="31"/>
       <c r="B141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="F141" s="7" t="s">
+      <c r="D141" s="4">
+        <v>2</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="31"/>
+      <c r="B142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
+    </row>
+    <row r="144" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="24"/>
-    </row>
-    <row r="144" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C144" s="4" t="s">
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="31"/>
+      <c r="B145" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="D144" s="4">
-        <v>1</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="G145" s="14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H145" s="14"/>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
-      <c r="D146" s="4">
+      <c r="E146" s="13"/>
+      <c r="F146" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H146" s="14"/>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
+      <c r="D147" s="4">
         <v>2</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="E147" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="F147" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="G147" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A148" s="31"/>
       <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H148" s="14"/>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A149" s="31"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A150" s="31"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="31"/>
       <c r="E151" s="13"/>
       <c r="F151" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H151" s="14"/>
+    </row>
+    <row r="152" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="31"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H153" s="14"/>
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="31"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H155" s="14"/>
+    </row>
+    <row r="156" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="31"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="31"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H157" s="14"/>
+    </row>
+    <row r="158" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A158" s="31"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" s="14"/>
+    </row>
+    <row r="159" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A159" s="31"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G158" s="14" t="s">
+      <c r="G159" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="D159" s="4">
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="31"/>
+      <c r="D160" s="4">
         <v>3</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="E160" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F160" s="13"/>
+      <c r="G160" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F159" s="13"/>
-      <c r="G159" s="14" t="s">
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="31"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="31"/>
+      <c r="B162" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="14"/>
-    </row>
-    <row r="161" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
-      <c r="B161" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D161" s="4">
+      <c r="D162" s="4">
         <v>1</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="E162" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F162" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F161" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
-      <c r="F162" s="13" t="s">
-        <v>241</v>
-      </c>
       <c r="G162" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="H162" s="13"/>
+    </row>
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="31"/>
       <c r="F163" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H163" s="13"/>
+    </row>
+    <row r="164" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="31"/>
-      <c r="D164" s="4">
+      <c r="F164" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H164" s="14"/>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="31"/>
+      <c r="D165" s="4">
         <v>2</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="E165" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F164" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="31"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G165" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="31"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="31"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="31"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="31"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="31"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="31"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="31"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="31"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="31"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="31"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H175" s="14"/>
+    </row>
+    <row r="176" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="31"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G175" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="31"/>
-      <c r="D176" s="4">
+      <c r="G176" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="31"/>
+      <c r="D177" s="4">
         <v>3</v>
       </c>
-      <c r="E176" s="13" t="s">
+      <c r="E177" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F177" s="13"/>
+      <c r="G177" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F176" s="13"/>
-      <c r="G176" s="14" t="s">
+      <c r="H177" s="14"/>
+    </row>
+    <row r="178" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="31"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+    </row>
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="31"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="14"/>
-    </row>
-    <row r="178" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="4" t="s">
+      <c r="C179" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1</v>
+      </c>
+      <c r="E179" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="F179" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="13"/>
+      <c r="F180" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="4">
+        <v>2</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F181" s="13"/>
+      <c r="G181" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D183" s="4">
         <v>1</v>
       </c>
-      <c r="E178" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G178" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E179" s="13"/>
-      <c r="F179" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G179" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D180" s="4">
+      <c r="E183" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F183" s="13"/>
+      <c r="G183" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H183" s="14"/>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="4">
         <v>2</v>
       </c>
-      <c r="E180" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F180" s="13"/>
-      <c r="G180" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="14"/>
-    </row>
-    <row r="182" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D182" s="4">
-        <v>1</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F182" s="13"/>
-      <c r="G182" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D183" s="4">
-        <v>2</v>
-      </c>
-      <c r="E183" s="13" t="s">
+      <c r="E184" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F183" s="13" t="s">
+      <c r="F184" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G184" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G183" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E184" s="13"/>
-      <c r="F184" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E185" s="13"/>
       <c r="F185" s="13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H185" s="14"/>
+    </row>
+    <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E186" s="13"/>
       <c r="F186" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H186" s="14"/>
+    </row>
+    <row r="187" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G187" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="G186" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="14"/>
-    </row>
-    <row r="188" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="14"/>
+    </row>
+    <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
       <c r="G188" s="14"/>
-    </row>
-    <row r="189" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="14"/>
+    </row>
+    <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
       <c r="G189" s="14"/>
-    </row>
-    <row r="190" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="14"/>
+    </row>
+    <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
       <c r="G190" s="14"/>
-    </row>
-    <row r="191" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="14"/>
+    </row>
+    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
       <c r="G191" s="14"/>
-    </row>
-    <row r="192" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="14"/>
+    </row>
+    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
       <c r="G192" s="14"/>
-    </row>
-    <row r="193" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="14"/>
+    </row>
+    <row r="193" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
       <c r="G193" s="14"/>
-    </row>
-    <row r="194" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="14"/>
+    </row>
+    <row r="194" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
       <c r="G194" s="14"/>
-    </row>
-    <row r="195" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="14"/>
+    </row>
+    <row r="195" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
       <c r="G195" s="14"/>
-    </row>
-    <row r="196" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="14"/>
+    </row>
+    <row r="196" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
       <c r="G196" s="14"/>
-    </row>
-    <row r="197" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="14"/>
+    </row>
+    <row r="197" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
       <c r="G197" s="14"/>
-    </row>
-    <row r="198" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
       <c r="G198" s="14"/>
-    </row>
-    <row r="199" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="14"/>
+    </row>
+    <row r="199" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
       <c r="G199" s="14"/>
-    </row>
-    <row r="200" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="14"/>
+    </row>
+    <row r="200" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
       <c r="G200" s="14"/>
-    </row>
-    <row r="201" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="14"/>
+    </row>
+    <row r="201" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
       <c r="G201" s="14"/>
-    </row>
-    <row r="202" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="14"/>
+    </row>
+    <row r="202" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
       <c r="G202" s="14"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="H202" s="14"/>
+    </row>
+    <row r="203" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E203" s="13"/>
       <c r="F203" s="13"/>
       <c r="G203" s="14"/>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="14"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
       <c r="E204" s="13"/>
       <c r="F204" s="13"/>
       <c r="G204" s="14"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="14"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E205" s="13"/>
       <c r="F205" s="13"/>
       <c r="G205" s="14"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="14"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E206" s="13"/>
       <c r="F206" s="13"/>
       <c r="G206" s="14"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="14"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E207" s="13"/>
       <c r="F207" s="13"/>
       <c r="G207" s="14"/>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="14"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E208" s="13"/>
       <c r="F208" s="13"/>
       <c r="G208" s="14"/>
-    </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="14"/>
+    </row>
+    <row r="209" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E209" s="13"/>
       <c r="F209" s="13"/>
       <c r="G209" s="14"/>
-    </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="14"/>
+    </row>
+    <row r="210" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E210" s="13"/>
       <c r="F210" s="13"/>
       <c r="G210" s="14"/>
-    </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="14"/>
+    </row>
+    <row r="211" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E211" s="13"/>
       <c r="F211" s="13"/>
       <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+    </row>
+    <row r="212" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(H1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
